--- a/SP_Sklad/Rep/WayBill_Out.xlsx
+++ b/SP_Sklad/Rep/WayBill_Out.xlsx
@@ -10,8 +10,9 @@
     <sheet name="Посвідчення якості" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
+    <definedName name="Posvitcheny">'Посвідчення якості'!$A$14:$N$14</definedName>
     <definedName name="range1">Накладна!$A$20:$P$21</definedName>
-    <definedName name="range2">'Посвідчення якості'!$A$14:$N$15</definedName>
+    <definedName name="range2">'Посвідчення якості'!#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Накладна!$A$1:$P$30</definedName>
   </definedNames>
   <calcPr/>
@@ -34,9 +35,6 @@
   </si>
   <si>
     <t>ФОП Test А.А.</t>
-  </si>
-  <si>
-    <t>7485787</t>
   </si>
   <si>
     <t>Одержувач</t>
@@ -1290,9 +1288,7 @@
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr codeName="Лист1"/>
   <sheetViews>
-    <sheetView tabSelected="1" showGridLines="0" zoomScaleNormal="100" workbookViewId="0" topLeftCell="A10">
-      <selection activeCell="D26" sqref="D26"/>
-    </sheetView>
+    <sheetView tabSelected="1" showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -1358,31 +1354,29 @@
     <row r="5">
       <c r="B5" s="12"/>
       <c r="D5" s="13" t="str">
-        <f>CONCATENATE(IF(""&lt;&gt;"","ЗКПО ",""),"",", тел.","0416231167")</f>
-        <v>, тел.0416231167</v>
+        <f>CONCATENATE(IF(""&lt;&gt;"","ЗКПО "&amp;""&amp;", ",""),"тел. ","0416231167")</f>
+        <v>тел. 0416231167</v>
       </c>
     </row>
     <row r="6">
-      <c r="B6" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="13" t="e">
-        <f>IF(B6&lt;&gt;"",CONCATENATE("Р/р ",B6," в ",EntAccount_BANKSNAME, ", МФО ","342344"),"")</f>
-        <v>#NAME?</v>
+      <c r="B6" s="12"/>
+      <c r="D6" s="13" t="str">
+        <f>IF(""&lt;&gt;"",CONCATENATE("Р/р ",""," в ","Приватбанк", ", МФО ","342344"),"")</f>
+        <v/>
       </c>
     </row>
     <row r="7">
       <c r="B7" s="12"/>
       <c r="C7" s="14"/>
       <c r="D7" s="13" t="str">
-        <f>IF(B7&lt;&gt;"",CONCATENATE("ІПН ",B7,", номер свідотцтва ",C7),"")</f>
+        <f>IF(B7&lt;&gt;"",CONCATENATE("ІПН ",B7,", номер свідотцтва ",""),"")</f>
         <v/>
       </c>
     </row>
     <row r="8" ht="24.75" customHeight="1">
       <c r="B8" s="15"/>
       <c r="D8" s="16" t="str">
-        <f>"Адреса: "&amp;B8</f>
+        <f>"Адреса: "&amp;""</f>
         <v xml:space="preserve">Адреса: </v>
       </c>
       <c r="E8" s="16"/>
@@ -1393,11 +1387,11 @@
     </row>
     <row r="11" thickBot="1">
       <c r="B11" s="8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C11" s="9"/>
       <c r="D11" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E11" s="11"/>
       <c r="F11" s="11"/>
@@ -1409,7 +1403,7 @@
       <c r="B12" s="17"/>
       <c r="C12" s="18"/>
       <c r="D12" s="19" t="str">
-        <f>CONCATENATE("Адреса: ",B12)</f>
+        <f>CONCATENATE("Адреса: ","")</f>
         <v xml:space="preserve">Адреса: </v>
       </c>
       <c r="E12" s="19"/>
@@ -1437,7 +1431,7 @@
     </row>
     <row r="15" ht="16.5" customHeight="1">
       <c r="B15" s="23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C15" s="24"/>
       <c r="D15" s="25"/>
@@ -1456,7 +1450,7 @@
     </row>
     <row r="16" ht="16.5" customHeight="1">
       <c r="B16" s="13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C16" s="27"/>
       <c r="D16" s="28"/>
@@ -1511,37 +1505,37 @@
     </row>
     <row r="19" ht="30.75" customHeight="1">
       <c r="B19" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="32" t="s">
         <v>10</v>
-      </c>
-      <c r="C19" s="32" t="s">
-        <v>11</v>
       </c>
       <c r="D19" s="33"/>
       <c r="E19" s="33"/>
       <c r="F19" s="33"/>
       <c r="G19" s="34"/>
       <c r="H19" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="I19" s="35" t="s">
         <v>12</v>
-      </c>
-      <c r="I19" s="35" t="s">
-        <v>13</v>
       </c>
       <c r="J19" s="32" t="str">
         <f>IF(B22&gt;0,"Ціна без ПДВ","Ціна без знижки")</f>
         <v>Ціна без знижки</v>
       </c>
       <c r="K19" s="32" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L19" s="32"/>
       <c r="M19" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="N19" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="N19" s="32" t="s">
-        <v>16</v>
-      </c>
       <c r="O19" s="32" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P19" s="36" t="str">
         <f>IF(B22&gt;0,"Сума без ПДВ","Сума зі знижкою")</f>
@@ -1553,14 +1547,14 @@
         <v>1</v>
       </c>
       <c r="C20" s="38" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D20" s="39"/>
       <c r="E20" s="39"/>
       <c r="F20" s="39"/>
       <c r="G20" s="40"/>
       <c r="H20" s="37" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I20" s="41">
         <v>15</v>
@@ -1690,11 +1684,11 @@
     </row>
     <row r="25" ht="12.75" customHeight="1">
       <c r="B25" s="63" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C25" s="28"/>
       <c r="D25" s="25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E25" s="25"/>
       <c r="F25" s="25"/>
@@ -1748,7 +1742,7 @@
         <v>-1</v>
       </c>
       <c r="C28" s="64" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D28" s="28"/>
       <c r="E28" s="28"/>
@@ -1785,7 +1779,7 @@
     <row r="30" ht="12.75" customHeight="1">
       <c r="A30" s="65"/>
       <c r="B30" s="67" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C30" s="67"/>
       <c r="D30" s="68" t="str">
@@ -1796,7 +1790,7 @@
       <c r="F30" s="68"/>
       <c r="G30" s="68"/>
       <c r="H30" s="69" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I30" s="69"/>
       <c r="J30" s="70"/>
@@ -3118,12 +3112,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="D30:G30"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="H30:I30"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="B17:P17"/>
     <mergeCell ref="I21:J21"/>
@@ -3135,6 +3123,12 @@
     <mergeCell ref="D12:I12"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="C19:G19"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="D30:G30"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="H30:I30"/>
     <mergeCell ref="C20:G20"/>
   </mergeCells>
   <pageMargins left="0.39375" right="0" top="0.39375" bottom="0.39375" header="0.5118055" footer="0.5118055"/>
@@ -3147,13 +3141,13 @@
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr codeName="Лист2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0" topLeftCell="B1">
-      <selection activeCell="F7" sqref="F7:N7"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="5.43" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="1.140625" customWidth="1"/>
     <col min="2" max="2" width="4.86" customWidth="1"/>
     <col min="3" max="3" width="6" customWidth="1"/>
     <col min="4" max="4" width="6.57" customWidth="1"/>
@@ -3171,7 +3165,7 @@
   <sheetData>
     <row r="1" ht="35.25" customHeight="1">
       <c r="B1" s="72" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C1" s="73"/>
       <c r="D1" s="73"/>
@@ -3188,7 +3182,7 @@
     </row>
     <row r="2" s="1" customFormat="1" ht="27.75" customHeight="1">
       <c r="B2" s="74" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" s="74"/>
       <c r="D2" s="74"/>
@@ -3207,7 +3201,7 @@
     </row>
     <row r="3" s="1" customFormat="1" ht="14.25" customHeight="1">
       <c r="B3" s="77" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" s="77"/>
       <c r="D3" s="77"/>
@@ -3225,7 +3219,7 @@
     <row r="4" s="1" customFormat="1" ht="14.25" customHeight="1">
       <c r="B4" s="77"/>
       <c r="C4" s="75" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D4" s="75"/>
       <c r="E4" s="75"/>
@@ -3242,7 +3236,7 @@
     <row r="5" s="1" customFormat="1" ht="16.5" customHeight="1">
       <c r="B5" s="77"/>
       <c r="C5" s="75" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D5" s="75"/>
       <c r="E5" s="75"/>
@@ -3259,7 +3253,7 @@
     <row r="6" s="1" customFormat="1" ht="16.5" customHeight="1">
       <c r="B6" s="77"/>
       <c r="C6" s="75" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D6" s="75"/>
       <c r="E6" s="75"/>
@@ -3276,12 +3270,12 @@
     <row r="7" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="B7" s="77"/>
       <c r="C7" s="76" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D7" s="76"/>
       <c r="E7" s="76"/>
       <c r="F7" s="75" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G7" s="75"/>
       <c r="H7" s="75"/>
@@ -3295,7 +3289,7 @@
     <row r="8" s="1" customFormat="1" ht="16.5" customHeight="1">
       <c r="B8" s="74"/>
       <c r="C8" s="75" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D8" s="75"/>
       <c r="E8" s="75"/>
@@ -3305,7 +3299,7 @@
       </c>
       <c r="H8" s="78"/>
       <c r="I8" s="75" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J8" s="75"/>
       <c r="K8" s="75"/>
@@ -3316,21 +3310,21 @@
     <row r="9" s="1" customFormat="1" ht="17.25" customHeight="1">
       <c r="B9" s="74"/>
       <c r="C9" s="75" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D9" s="75"/>
       <c r="E9" s="75" t="s">
         <v>1</v>
       </c>
       <c r="F9" s="76" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G9" s="79">
         <v>42627.652355439815</v>
       </c>
       <c r="H9" s="79"/>
       <c r="I9" s="76" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J9" s="76"/>
       <c r="K9" s="76"/>
@@ -3356,34 +3350,34 @@
     <row r="11" s="1" customFormat="1"/>
     <row r="12" s="1" customFormat="1" ht="23.25" customHeight="1">
       <c r="B12" s="80" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="81" t="s">
         <v>36</v>
-      </c>
-      <c r="C12" s="81" t="s">
-        <v>37</v>
       </c>
       <c r="D12" s="82"/>
       <c r="E12" s="82"/>
       <c r="F12" s="83"/>
       <c r="G12" s="80" t="s">
+        <v>37</v>
+      </c>
+      <c r="H12" s="80" t="s">
         <v>38</v>
       </c>
-      <c r="H12" s="80" t="s">
+      <c r="I12" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="I12" s="80" t="s">
+      <c r="J12" s="80" t="s">
         <v>40</v>
       </c>
-      <c r="J12" s="80" t="s">
+      <c r="K12" s="80" t="s">
         <v>41</v>
       </c>
-      <c r="K12" s="80" t="s">
+      <c r="L12" s="80" t="s">
         <v>42</v>
       </c>
-      <c r="L12" s="80" t="s">
+      <c r="M12" s="81" t="s">
         <v>43</v>
-      </c>
-      <c r="M12" s="81" t="s">
-        <v>44</v>
       </c>
       <c r="N12" s="83"/>
     </row>
@@ -3403,74 +3397,71 @@
       <c r="N13" s="87"/>
     </row>
     <row r="14" s="1" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B14" s="88" t="e">
-        <f>Posvitcheny_NUM</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="C14" s="89" t="e">
-        <f>Posvitcheny_NAME</f>
-        <v>#NAME?</v>
+      <c r="B14" s="88">
+        <v>1</v>
+      </c>
+      <c r="C14" s="89" t="s">
+        <v>16</v>
       </c>
       <c r="D14" s="90"/>
       <c r="E14" s="90"/>
       <c r="F14" s="91"/>
-      <c r="G14" s="92" t="e">
-        <f>Posvitcheny_AMOUNT</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="H14" s="92" t="e">
-        <f>Posvitcheny_CF1</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="I14" s="92" t="e">
-        <f>Posvitcheny_CF2</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="J14" s="93" t="e">
-        <f>Posvitcheny_ONDATE</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="K14" s="92" t="e">
-        <f>Posvitcheny_CF3</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="L14" s="92" t="e">
-        <f>Posvitcheny_CF4</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="M14" s="94" t="e">
-        <f>Posvitcheny_CF5</f>
-        <v>#NAME?</v>
-      </c>
+      <c r="G14" s="92">
+        <v>15</v>
+      </c>
+      <c r="H14" s="92"/>
+      <c r="I14" s="92"/>
+      <c r="J14" s="93">
+        <v>42626.652355439815</v>
+      </c>
+      <c r="K14" s="92"/>
+      <c r="L14" s="92"/>
+      <c r="M14" s="94"/>
       <c r="N14" s="95"/>
     </row>
-    <row r="15" ht="12.75" customHeight="1"/>
+    <row r="15">
+      <c r="C15" s="96" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="97" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" s="96"/>
+      <c r="F15" s="96"/>
+      <c r="G15" s="96"/>
+      <c r="H15" s="96"/>
+      <c r="I15" s="96"/>
+      <c r="J15" s="96"/>
+      <c r="K15" s="96"/>
+      <c r="L15" s="96"/>
+      <c r="M15" s="96"/>
+    </row>
     <row r="16">
-      <c r="C16" s="96" t="s">
-        <v>45</v>
-      </c>
-      <c r="D16" s="97" t="s">
+      <c r="C16" t="s">
         <v>46</v>
       </c>
-      <c r="E16" s="96"/>
-      <c r="F16" s="96"/>
-      <c r="G16" s="96"/>
-      <c r="H16" s="96"/>
-      <c r="I16" s="96"/>
-      <c r="J16" s="96"/>
-      <c r="K16" s="96"/>
-      <c r="L16" s="96"/>
-      <c r="M16" s="96"/>
+      <c r="D16" s="98" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" s="98"/>
+      <c r="F16" s="98"/>
+      <c r="G16" s="98"/>
+      <c r="H16" s="98"/>
+      <c r="I16" s="98"/>
+      <c r="J16" s="98"/>
+      <c r="K16" s="98"/>
+      <c r="L16" s="98"/>
+      <c r="M16" s="98"/>
+      <c r="N16" s="98"/>
     </row>
     <row r="17">
-      <c r="C17" t="s">
-        <v>47</v>
-      </c>
       <c r="D17" s="98" t="s">
         <v>48</v>
       </c>
       <c r="E17" s="98"/>
-      <c r="F17" s="98"/>
+      <c r="F17" s="98" t="s">
+        <v>49</v>
+      </c>
       <c r="G17" s="98"/>
       <c r="H17" s="98"/>
       <c r="I17" s="98"/>
@@ -3482,12 +3473,10 @@
     </row>
     <row r="18">
       <c r="D18" s="98" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E18" s="98"/>
-      <c r="F18" s="98" t="s">
-        <v>50</v>
-      </c>
+      <c r="F18" s="98"/>
       <c r="G18" s="98"/>
       <c r="H18" s="98"/>
       <c r="I18" s="98"/>
@@ -3513,8 +3502,11 @@
       <c r="N19" s="98"/>
     </row>
     <row r="20">
+      <c r="C20" t="s">
+        <v>52</v>
+      </c>
       <c r="D20" s="98" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E20" s="98"/>
       <c r="F20" s="98"/>
@@ -3525,12 +3517,8 @@
       <c r="K20" s="98"/>
       <c r="L20" s="98"/>
       <c r="M20" s="98"/>
-      <c r="N20" s="98"/>
     </row>
     <row r="21">
-      <c r="C21" t="s">
-        <v>53</v>
-      </c>
       <c r="D21" s="98" t="s">
         <v>54</v>
       </c>
@@ -3545,8 +3533,11 @@
       <c r="M21" s="98"/>
     </row>
     <row r="22">
+      <c r="C22" t="s">
+        <v>55</v>
+      </c>
       <c r="D22" s="98" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E22" s="98"/>
       <c r="F22" s="98"/>
@@ -3557,13 +3548,14 @@
       <c r="K22" s="98"/>
       <c r="L22" s="98"/>
       <c r="M22" s="98"/>
+      <c r="N22" s="98"/>
     </row>
     <row r="23">
       <c r="C23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D23" s="98" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E23" s="98"/>
       <c r="F23" s="98"/>
@@ -3576,37 +3568,20 @@
       <c r="M23" s="98"/>
       <c r="N23" s="98"/>
     </row>
-    <row r="24">
-      <c r="C24" t="s">
-        <v>58</v>
-      </c>
-      <c r="D24" s="98" t="s">
+    <row r="26">
+      <c r="C26" s="98" t="s">
         <v>59</v>
       </c>
-      <c r="E24" s="98"/>
-      <c r="F24" s="98"/>
-      <c r="G24" s="98"/>
-      <c r="H24" s="98"/>
-      <c r="I24" s="98"/>
-      <c r="J24" s="98"/>
-      <c r="K24" s="98"/>
-      <c r="L24" s="98"/>
-      <c r="M24" s="98"/>
-      <c r="N24" s="98"/>
-    </row>
-    <row r="27">
-      <c r="C27" s="98" t="s">
+      <c r="D26" s="98"/>
+      <c r="E26" s="98"/>
+      <c r="F26" s="98"/>
+      <c r="G26" s="98"/>
+      <c r="H26" s="98"/>
+      <c r="K26" t="s">
         <v>60</v>
       </c>
-      <c r="D27" s="98"/>
-      <c r="E27" s="98"/>
-      <c r="F27" s="98"/>
-      <c r="G27" s="98"/>
-      <c r="H27" s="98"/>
-      <c r="K27" t="s">
-        <v>61</v>
-      </c>
-    </row>
+    </row>
+    <row r="27" ht="12.75" customHeight="1"/>
     <row r="28" ht="12.75" customHeight="1"/>
     <row r="29" ht="12.75" customHeight="1"/>
     <row r="30" ht="12.75" customHeight="1"/>
@@ -3627,41 +3602,36 @@
     <row r="45" ht="12.75" customHeight="1"/>
     <row r="46" ht="12.75" customHeight="1"/>
     <row r="47" ht="12.75" customHeight="1"/>
-    <row r="48" ht="12.75" customHeight="1"/>
-    <row r="49" ht="12.75" customHeight="1"/>
-    <row r="50" ht="12.75" customHeight="1"/>
-    <row r="51" ht="12.75" customHeight="1"/>
-    <row r="52" ht="12.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="C26:H26"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="B3:N3"/>
+    <mergeCell ref="D16:N16"/>
+    <mergeCell ref="D20:M20"/>
+    <mergeCell ref="C6:N6"/>
+    <mergeCell ref="F7:N7"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="D21:M21"/>
+    <mergeCell ref="D22:N22"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
     <mergeCell ref="B1:N1"/>
     <mergeCell ref="B2:K2"/>
     <mergeCell ref="C4:N4"/>
     <mergeCell ref="C5:N5"/>
-    <mergeCell ref="D24:N24"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="D23:N23"/>
     <mergeCell ref="G8:H8"/>
     <mergeCell ref="I8:N8"/>
     <mergeCell ref="J12:J13"/>
     <mergeCell ref="K12:K13"/>
     <mergeCell ref="L12:L13"/>
     <mergeCell ref="M12:N13"/>
-    <mergeCell ref="C27:H27"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="B3:N3"/>
-    <mergeCell ref="D17:N17"/>
-    <mergeCell ref="D21:M21"/>
-    <mergeCell ref="C6:N6"/>
-    <mergeCell ref="F7:N7"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="D22:M22"/>
-    <mergeCell ref="D23:N23"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="C14:F14"/>
   </mergeCells>
   <pageSetup paperSize="9" orientation="portrait" scale="74"/>
 </worksheet>

--- a/SP_Sklad/Rep/WayBill_Out.xlsx
+++ b/SP_Sklad/Rep/WayBill_Out.xlsx
@@ -10,10 +10,10 @@
     <sheet name="Посвідчення якості" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="Posvitcheny">'Посвідчення якості'!$A$14:$N$14</definedName>
-    <definedName name="range1">Накладна!$A$20:$P$21</definedName>
+    <definedName name="Posvitcheny">'Посвідчення якості'!$A$14:$N$16</definedName>
+    <definedName name="range1">Накладна!$A$20:$P$23</definedName>
     <definedName name="range2">'Посвідчення якості'!#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Накладна!$A$1:$P$30</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Накладна!$A$1:$P$32</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
@@ -25,7 +25,7 @@
     <t xml:space="preserve">ВИДАТКОВА НАКЛАДНА № </t>
   </si>
   <si>
-    <t>58</t>
+    <t>61</t>
   </si>
   <si>
     <t xml:space="preserve">від </t>
@@ -40,9 +40,6 @@
     <t>Одержувач</t>
   </si>
   <si>
-    <t>ФОП Лялецька №1</t>
-  </si>
-  <si>
     <t>Через кого</t>
   </si>
   <si>
@@ -70,16 +67,22 @@
     <t>Знижка</t>
   </si>
   <si>
+    <t>Софієвські 1.с". Сардельки</t>
+  </si>
+  <si>
+    <t>кг.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Яловичина  1 сотру</t>
   </si>
   <si>
-    <t>кг.</t>
+    <t>Яловичина 2с.</t>
   </si>
   <si>
     <t>Всього на суму:</t>
   </si>
   <si>
-    <t>двісті сімдесят гривень нуль копійок</t>
+    <t>одна тисяча двісті гривень нуль копійок</t>
   </si>
   <si>
     <t>Дорогин А.</t>
@@ -152,6 +155,18 @@
   </si>
   <si>
     <t>Нормативний документ</t>
+  </si>
+  <si>
+    <t>Ящ.</t>
+  </si>
+  <si>
+    <t>0-6 град С.Ввп 75-78%.</t>
+  </si>
+  <si>
+    <t>72 години.</t>
+  </si>
+  <si>
+    <t>ТУ У 15.1-25878614.006-2002</t>
   </si>
   <si>
     <t>1.</t>
@@ -1332,7 +1347,7 @@
       <c r="M2" s="5"/>
       <c r="N2" s="5"/>
       <c r="O2" s="6">
-        <v>42627.652355439815</v>
+        <v>42634.410999884254</v>
       </c>
       <c r="P2" s="6"/>
       <c r="Q2" s="7"/>
@@ -1391,7 +1406,7 @@
       </c>
       <c r="C11" s="9"/>
       <c r="D11" s="10" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E11" s="11"/>
       <c r="F11" s="11"/>
@@ -1431,7 +1446,7 @@
     </row>
     <row r="15" ht="16.5" customHeight="1">
       <c r="B15" s="23" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C15" s="24"/>
       <c r="D15" s="25"/>
@@ -1450,7 +1465,7 @@
     </row>
     <row r="16" ht="16.5" customHeight="1">
       <c r="B16" s="13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C16" s="27"/>
       <c r="D16" s="28"/>
@@ -1474,8 +1489,8 @@
     </row>
     <row r="17" ht="18.75" customHeight="1">
       <c r="B17" s="23" t="str">
-        <f>CONCATENATE("Підстава: ","")</f>
-        <v xml:space="preserve">Підстава: </v>
+        <f>CONCATENATE("Підстава: ","Замовлення від клієнтів №59")</f>
+        <v>Підстава: Замовлення від клієнтів №59</v>
       </c>
       <c r="C17" s="23"/>
       <c r="D17" s="23"/>
@@ -1505,40 +1520,40 @@
     </row>
     <row r="19" ht="30.75" customHeight="1">
       <c r="B19" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="32" t="s">
         <v>9</v>
-      </c>
-      <c r="C19" s="32" t="s">
-        <v>10</v>
       </c>
       <c r="D19" s="33"/>
       <c r="E19" s="33"/>
       <c r="F19" s="33"/>
       <c r="G19" s="34"/>
       <c r="H19" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="I19" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="I19" s="35" t="s">
+      <c r="J19" s="32" t="str">
+        <f>IF(B24&gt;0,"Ціна без ПДВ","Ціна без знижки")</f>
+        <v>Ціна без знижки</v>
+      </c>
+      <c r="K19" s="32" t="s">
         <v>12</v>
-      </c>
-      <c r="J19" s="32" t="str">
-        <f>IF(B22&gt;0,"Ціна без ПДВ","Ціна без знижки")</f>
-        <v>Ціна без знижки</v>
-      </c>
-      <c r="K19" s="32" t="s">
-        <v>13</v>
       </c>
       <c r="L19" s="32"/>
       <c r="M19" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="N19" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="N19" s="32" t="s">
-        <v>15</v>
-      </c>
       <c r="O19" s="32" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P19" s="36" t="str">
-        <f>IF(B22&gt;0,"Сума без ПДВ","Сума зі знижкою")</f>
+        <f>IF(B24&gt;0,"Сума без ПДВ","Сума зі знижкою")</f>
         <v>Сума зі знижкою</v>
       </c>
     </row>
@@ -1547,24 +1562,24 @@
         <v>1</v>
       </c>
       <c r="C20" s="38" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D20" s="39"/>
       <c r="E20" s="39"/>
       <c r="F20" s="39"/>
       <c r="G20" s="40"/>
       <c r="H20" s="37" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I20" s="41">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="J20" s="42">
         <f>K20+N20</f>
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="K20" s="42">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="L20" s="43">
         <v>0</v>
@@ -1581,127 +1596,173 @@
       </c>
       <c r="P20" s="42">
         <f>ROUND(I20*(J20-N20),2)</f>
-        <v>270</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="21" ht="12.75" customHeight="1">
-      <c r="B21" s="44"/>
-      <c r="C21" s="45"/>
-      <c r="D21" s="45"/>
-      <c r="E21" s="45"/>
-      <c r="F21" s="45"/>
-      <c r="G21" s="46"/>
-      <c r="H21" s="46"/>
-      <c r="I21" s="47" t="str">
-        <f>IF(B22&gt;0,"Всього без ПДВ","Всього")</f>
+      <c r="B21" s="37">
+        <v>2</v>
+      </c>
+      <c r="C21" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="39"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="I21" s="41">
+        <v>0</v>
+      </c>
+      <c r="J21" s="42">
+        <f>K21+N21</f>
+        <v>13</v>
+      </c>
+      <c r="K21" s="42">
+        <v>13</v>
+      </c>
+      <c r="L21" s="43">
+        <v>0</v>
+      </c>
+      <c r="M21" s="43">
+        <v>0</v>
+      </c>
+      <c r="N21" s="42">
+        <v>0</v>
+      </c>
+      <c r="O21" s="42">
+        <f>I21*N21</f>
+        <v>0</v>
+      </c>
+      <c r="P21" s="42">
+        <f>ROUND(I21*(J21-N21),2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" ht="12.75" customHeight="1">
+      <c r="B22" s="37">
+        <v>3</v>
+      </c>
+      <c r="C22" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" s="39"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="I22" s="41">
+        <v>0</v>
+      </c>
+      <c r="J22" s="42">
+        <f>K22+N22</f>
+        <v>1.3278000000000001</v>
+      </c>
+      <c r="K22" s="42">
+        <v>1.3278000000000001</v>
+      </c>
+      <c r="L22" s="43">
+        <v>0</v>
+      </c>
+      <c r="M22" s="43">
+        <v>0</v>
+      </c>
+      <c r="N22" s="42">
+        <v>0</v>
+      </c>
+      <c r="O22" s="42">
+        <f>I22*N22</f>
+        <v>0</v>
+      </c>
+      <c r="P22" s="42">
+        <f>ROUND(I22*(J22-N22),2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" ht="12.75" customHeight="1">
+      <c r="B23" s="44"/>
+      <c r="C23" s="45"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="45"/>
+      <c r="F23" s="45"/>
+      <c r="G23" s="46"/>
+      <c r="H23" s="46"/>
+      <c r="I23" s="47" t="str">
+        <f>IF(B24&gt;0,"Всього без ПДВ","Всього")</f>
         <v>Всього</v>
       </c>
-      <c r="J21" s="48"/>
-      <c r="K21" s="48"/>
-      <c r="L21" s="49"/>
-      <c r="M21" s="50">
-        <f>SUM(M20)</f>
+      <c r="J23" s="48"/>
+      <c r="K23" s="48"/>
+      <c r="L23" s="49"/>
+      <c r="M23" s="50">
+        <f>SUM(M20:M22)</f>
         <v>0</v>
       </c>
-      <c r="N21" s="51">
-        <f>SUM(N20)</f>
+      <c r="N23" s="51">
+        <f>SUM(N20:N22)</f>
         <v>0</v>
       </c>
-      <c r="O21" s="51">
-        <f>SUM(O20)</f>
+      <c r="O23" s="51">
+        <f>SUM(O20:O22)</f>
         <v>0</v>
       </c>
-      <c r="P21" s="52">
-        <f>SUM(P20)</f>
-        <v>270</v>
-      </c>
-    </row>
-    <row r="22" ht="12.75" customHeight="1">
-      <c r="B22" s="53">
+      <c r="P23" s="52">
+        <f>SUM(P20:P22)</f>
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="24" ht="12.75" customHeight="1">
+      <c r="B24" s="53">
         <v>0</v>
       </c>
-      <c r="C22" s="54">
-        <f>ROUND(P21*B22/100,2)</f>
+      <c r="C24" s="54">
+        <f>ROUND(P23*B24/100,2)</f>
         <v>0</v>
       </c>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="55"/>
-      <c r="H22" s="55"/>
-      <c r="I22" s="56" t="str">
-        <f>IF(B22&gt;0,CONCATENATE("Всього ПДВ "&amp;WayBillList_NDS&amp;"%"),"Всього без знижки")</f>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="55"/>
+      <c r="H24" s="55"/>
+      <c r="I24" s="56" t="str">
+        <f>IF(B24&gt;0,CONCATENATE("Всього ПДВ "&amp;WayBillList_NDS&amp;"%"),"Всього без знижки")</f>
         <v>Всього без знижки</v>
       </c>
-      <c r="J22" s="57"/>
-      <c r="K22" s="57"/>
-      <c r="L22" s="49"/>
-      <c r="M22" s="49"/>
-      <c r="N22" s="49"/>
-      <c r="O22" s="49"/>
-      <c r="P22" s="58">
-        <f>IF(B22&gt;0,C22,O21+P21)</f>
-        <v>270</v>
-      </c>
-    </row>
-    <row r="23" ht="12.75" customHeight="1">
-      <c r="B23" s="59">
-        <f>O21+P21</f>
-        <v>270</v>
-      </c>
-      <c r="H23" s="60" t="str">
-        <f>IF(B22&gt;0,"Разом, в т.ч ПДВ:","Всього до сплати")</f>
+      <c r="J24" s="57"/>
+      <c r="K24" s="57"/>
+      <c r="L24" s="49"/>
+      <c r="M24" s="49"/>
+      <c r="N24" s="49"/>
+      <c r="O24" s="49"/>
+      <c r="P24" s="58">
+        <f>IF(B24&gt;0,C24,O23+P23)</f>
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="25" ht="12.75" customHeight="1">
+      <c r="B25" s="59">
+        <f>O23+P23</f>
+        <v>1200</v>
+      </c>
+      <c r="H25" s="60" t="str">
+        <f>IF(B24&gt;0,"Разом, в т.ч ПДВ:","Всього до сплати")</f>
         <v>Всього до сплати</v>
       </c>
-      <c r="I23" s="60"/>
-      <c r="J23" s="61"/>
-      <c r="K23" s="57"/>
-      <c r="L23" s="49"/>
-      <c r="M23" s="49"/>
-      <c r="N23" s="49"/>
-      <c r="O23" s="49"/>
-      <c r="P23" s="62">
-        <f>IF(B22&gt;0,P21+P22,P21)</f>
-        <v>270</v>
-      </c>
-    </row>
-    <row r="24" ht="12.75" customHeight="1">
-      <c r="B24" s="28"/>
-      <c r="C24" s="28"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="55"/>
-      <c r="I24" s="55"/>
-      <c r="J24" s="55"/>
-      <c r="K24" s="55"/>
-      <c r="L24" s="55"/>
-      <c r="M24" s="55"/>
-      <c r="N24" s="55"/>
-      <c r="O24" s="55"/>
-      <c r="P24" s="55"/>
-    </row>
-    <row r="25" ht="12.75" customHeight="1">
-      <c r="B25" s="63" t="s">
-        <v>18</v>
-      </c>
-      <c r="C25" s="28"/>
-      <c r="D25" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="23"/>
-      <c r="I25" s="23"/>
-      <c r="J25" s="23"/>
-      <c r="K25" s="23"/>
-      <c r="L25" s="23"/>
-      <c r="M25" s="23"/>
-      <c r="N25" s="23"/>
-      <c r="O25" s="23"/>
-      <c r="P25" s="23"/>
+      <c r="I25" s="60"/>
+      <c r="J25" s="61"/>
+      <c r="K25" s="57"/>
+      <c r="L25" s="49"/>
+      <c r="M25" s="49"/>
+      <c r="N25" s="49"/>
+      <c r="O25" s="49"/>
+      <c r="P25" s="62">
+        <f>IF(B24&gt;0,P23+P24,P23)</f>
+        <v>1200</v>
+      </c>
     </row>
     <row r="26" ht="12.75" customHeight="1">
       <c r="B26" s="28"/>
@@ -1721,29 +1782,29 @@
       <c r="P26" s="55"/>
     </row>
     <row r="27" ht="12.75" customHeight="1">
-      <c r="B27" s="28"/>
+      <c r="B27" s="63" t="s">
+        <v>19</v>
+      </c>
       <c r="C27" s="28"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="55"/>
-      <c r="I27" s="55"/>
-      <c r="J27" s="55"/>
-      <c r="K27" s="55"/>
-      <c r="L27" s="55"/>
-      <c r="M27" s="55"/>
-      <c r="N27" s="55"/>
-      <c r="O27" s="55"/>
-      <c r="P27" s="55"/>
+      <c r="D27" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="23"/>
+      <c r="J27" s="23"/>
+      <c r="K27" s="23"/>
+      <c r="L27" s="23"/>
+      <c r="M27" s="23"/>
+      <c r="N27" s="23"/>
+      <c r="O27" s="23"/>
+      <c r="P27" s="23"/>
     </row>
     <row r="28" ht="12.75" customHeight="1">
-      <c r="B28" s="64">
-        <v>-1</v>
-      </c>
-      <c r="C28" s="64" t="s">
-        <v>20</v>
-      </c>
+      <c r="B28" s="28"/>
+      <c r="C28" s="28"/>
       <c r="D28" s="28"/>
       <c r="E28" s="28"/>
       <c r="F28" s="28"/>
@@ -1759,49 +1820,45 @@
       <c r="P28" s="55"/>
     </row>
     <row r="29" ht="12.75" customHeight="1">
-      <c r="A29" s="65"/>
-      <c r="B29" s="66"/>
-      <c r="C29" s="66"/>
-      <c r="D29" s="66"/>
-      <c r="E29" s="66"/>
-      <c r="F29" s="66"/>
-      <c r="G29" s="66"/>
-      <c r="H29" s="66"/>
-      <c r="I29" s="66"/>
-      <c r="J29" s="66"/>
-      <c r="K29" s="66"/>
-      <c r="L29" s="66"/>
-      <c r="M29" s="66"/>
-      <c r="N29" s="66"/>
-      <c r="O29" s="66"/>
-      <c r="P29" s="66"/>
+      <c r="B29" s="28"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="28"/>
+      <c r="H29" s="55"/>
+      <c r="I29" s="55"/>
+      <c r="J29" s="55"/>
+      <c r="K29" s="55"/>
+      <c r="L29" s="55"/>
+      <c r="M29" s="55"/>
+      <c r="N29" s="55"/>
+      <c r="O29" s="55"/>
+      <c r="P29" s="55"/>
     </row>
     <row r="30" ht="12.75" customHeight="1">
-      <c r="A30" s="65"/>
-      <c r="B30" s="67" t="s">
+      <c r="B30" s="64">
+        <v>-1</v>
+      </c>
+      <c r="C30" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="C30" s="67"/>
-      <c r="D30" s="68" t="str">
-        <f>IF(B28 &lt; 0,C28," ")</f>
-        <v>Дорогин А.</v>
-      </c>
-      <c r="E30" s="68"/>
-      <c r="F30" s="68"/>
-      <c r="G30" s="68"/>
-      <c r="H30" s="69" t="s">
-        <v>22</v>
-      </c>
-      <c r="I30" s="69"/>
-      <c r="J30" s="70"/>
-      <c r="K30" s="70"/>
-      <c r="L30" s="70"/>
-      <c r="M30" s="70"/>
-      <c r="N30" s="70"/>
-      <c r="O30" s="70"/>
-      <c r="P30" s="70"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="55"/>
+      <c r="I30" s="55"/>
+      <c r="J30" s="55"/>
+      <c r="K30" s="55"/>
+      <c r="L30" s="55"/>
+      <c r="M30" s="55"/>
+      <c r="N30" s="55"/>
+      <c r="O30" s="55"/>
+      <c r="P30" s="55"/>
     </row>
     <row r="31" ht="12.75" customHeight="1">
+      <c r="A31" s="65"/>
       <c r="B31" s="66"/>
       <c r="C31" s="66"/>
       <c r="D31" s="66"/>
@@ -1819,21 +1876,29 @@
       <c r="P31" s="66"/>
     </row>
     <row r="32" ht="12.75" customHeight="1">
-      <c r="B32" s="66"/>
-      <c r="C32" s="66"/>
-      <c r="D32" s="66"/>
-      <c r="E32" s="66"/>
-      <c r="F32" s="66"/>
-      <c r="G32" s="66"/>
-      <c r="H32" s="66"/>
-      <c r="I32" s="66"/>
-      <c r="J32" s="66"/>
-      <c r="K32" s="66"/>
-      <c r="L32" s="66"/>
-      <c r="M32" s="66"/>
-      <c r="N32" s="66"/>
-      <c r="O32" s="66"/>
-      <c r="P32" s="66"/>
+      <c r="A32" s="65"/>
+      <c r="B32" s="67" t="s">
+        <v>22</v>
+      </c>
+      <c r="C32" s="67"/>
+      <c r="D32" s="68" t="str">
+        <f>IF(B30 &lt; 0,C30," ")</f>
+        <v>Дорогин А.</v>
+      </c>
+      <c r="E32" s="68"/>
+      <c r="F32" s="68"/>
+      <c r="G32" s="68"/>
+      <c r="H32" s="69" t="s">
+        <v>23</v>
+      </c>
+      <c r="I32" s="69"/>
+      <c r="J32" s="70"/>
+      <c r="K32" s="70"/>
+      <c r="L32" s="70"/>
+      <c r="M32" s="70"/>
+      <c r="N32" s="70"/>
+      <c r="O32" s="70"/>
+      <c r="P32" s="70"/>
     </row>
     <row r="33" ht="12.75" customHeight="1">
       <c r="B33" s="66"/>
@@ -1842,7 +1907,7 @@
       <c r="E33" s="66"/>
       <c r="F33" s="66"/>
       <c r="G33" s="66"/>
-      <c r="H33" s="71"/>
+      <c r="H33" s="66"/>
       <c r="I33" s="66"/>
       <c r="J33" s="66"/>
       <c r="K33" s="66"/>
@@ -1876,7 +1941,7 @@
       <c r="E35" s="66"/>
       <c r="F35" s="66"/>
       <c r="G35" s="66"/>
-      <c r="H35" s="66"/>
+      <c r="H35" s="71"/>
       <c r="I35" s="66"/>
       <c r="J35" s="66"/>
       <c r="K35" s="66"/>
@@ -2158,7 +2223,7 @@
       <c r="O51" s="66"/>
       <c r="P51" s="66"/>
     </row>
-    <row r="52">
+    <row r="52" ht="12.75" customHeight="1">
       <c r="B52" s="66"/>
       <c r="C52" s="66"/>
       <c r="D52" s="66"/>
@@ -2175,7 +2240,7 @@
       <c r="O52" s="66"/>
       <c r="P52" s="66"/>
     </row>
-    <row r="53">
+    <row r="53" ht="12.75" customHeight="1">
       <c r="B53" s="66"/>
       <c r="C53" s="66"/>
       <c r="D53" s="66"/>
@@ -3110,12 +3175,46 @@
       <c r="O107" s="66"/>
       <c r="P107" s="66"/>
     </row>
+    <row r="108">
+      <c r="B108" s="66"/>
+      <c r="C108" s="66"/>
+      <c r="D108" s="66"/>
+      <c r="E108" s="66"/>
+      <c r="F108" s="66"/>
+      <c r="G108" s="66"/>
+      <c r="H108" s="66"/>
+      <c r="I108" s="66"/>
+      <c r="J108" s="66"/>
+      <c r="K108" s="66"/>
+      <c r="L108" s="66"/>
+      <c r="M108" s="66"/>
+      <c r="N108" s="66"/>
+      <c r="O108" s="66"/>
+      <c r="P108" s="66"/>
+    </row>
+    <row r="109">
+      <c r="B109" s="66"/>
+      <c r="C109" s="66"/>
+      <c r="D109" s="66"/>
+      <c r="E109" s="66"/>
+      <c r="F109" s="66"/>
+      <c r="G109" s="66"/>
+      <c r="H109" s="66"/>
+      <c r="I109" s="66"/>
+      <c r="J109" s="66"/>
+      <c r="K109" s="66"/>
+      <c r="L109" s="66"/>
+      <c r="M109" s="66"/>
+      <c r="N109" s="66"/>
+      <c r="O109" s="66"/>
+      <c r="P109" s="66"/>
+    </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="20">
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="B17:P17"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="I24:J24"/>
     <mergeCell ref="L2:M2"/>
     <mergeCell ref="O2:P2"/>
     <mergeCell ref="F16:G16"/>
@@ -3123,13 +3222,15 @@
     <mergeCell ref="D12:I12"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="C19:G19"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="D30:G30"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="D32:G32"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="H32:I32"/>
     <mergeCell ref="C20:G20"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C22:G22"/>
   </mergeCells>
   <pageMargins left="0.39375" right="0" top="0.39375" bottom="0.39375" header="0.5118055" footer="0.5118055"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -3165,7 +3266,7 @@
   <sheetData>
     <row r="1" ht="35.25" customHeight="1">
       <c r="B1" s="72" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C1" s="73"/>
       <c r="D1" s="73"/>
@@ -3182,7 +3283,7 @@
     </row>
     <row r="2" s="1" customFormat="1" ht="27.75" customHeight="1">
       <c r="B2" s="74" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" s="74"/>
       <c r="D2" s="74"/>
@@ -3201,7 +3302,7 @@
     </row>
     <row r="3" s="1" customFormat="1" ht="14.25" customHeight="1">
       <c r="B3" s="77" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" s="77"/>
       <c r="D3" s="77"/>
@@ -3219,7 +3320,7 @@
     <row r="4" s="1" customFormat="1" ht="14.25" customHeight="1">
       <c r="B4" s="77"/>
       <c r="C4" s="75" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" s="75"/>
       <c r="E4" s="75"/>
@@ -3236,7 +3337,7 @@
     <row r="5" s="1" customFormat="1" ht="16.5" customHeight="1">
       <c r="B5" s="77"/>
       <c r="C5" s="75" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D5" s="75"/>
       <c r="E5" s="75"/>
@@ -3253,7 +3354,7 @@
     <row r="6" s="1" customFormat="1" ht="16.5" customHeight="1">
       <c r="B6" s="77"/>
       <c r="C6" s="75" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D6" s="75"/>
       <c r="E6" s="75"/>
@@ -3270,12 +3371,12 @@
     <row r="7" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="B7" s="77"/>
       <c r="C7" s="76" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D7" s="76"/>
       <c r="E7" s="76"/>
       <c r="F7" s="75" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G7" s="75"/>
       <c r="H7" s="75"/>
@@ -3289,17 +3390,17 @@
     <row r="8" s="1" customFormat="1" ht="16.5" customHeight="1">
       <c r="B8" s="74"/>
       <c r="C8" s="75" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D8" s="75"/>
       <c r="E8" s="75"/>
       <c r="F8" s="75"/>
       <c r="G8" s="78">
-        <v>42627.652355439815</v>
+        <v>42634.410999884254</v>
       </c>
       <c r="H8" s="78"/>
       <c r="I8" s="75" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J8" s="75"/>
       <c r="K8" s="75"/>
@@ -3310,21 +3411,21 @@
     <row r="9" s="1" customFormat="1" ht="17.25" customHeight="1">
       <c r="B9" s="74"/>
       <c r="C9" s="75" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D9" s="75"/>
       <c r="E9" s="75" t="s">
         <v>1</v>
       </c>
       <c r="F9" s="76" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G9" s="79">
-        <v>42627.652355439815</v>
+        <v>42634.410999884254</v>
       </c>
       <c r="H9" s="79"/>
       <c r="I9" s="76" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J9" s="76"/>
       <c r="K9" s="76"/>
@@ -3350,34 +3451,34 @@
     <row r="11" s="1" customFormat="1"/>
     <row r="12" s="1" customFormat="1" ht="23.25" customHeight="1">
       <c r="B12" s="80" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C12" s="81" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D12" s="82"/>
       <c r="E12" s="82"/>
       <c r="F12" s="83"/>
       <c r="G12" s="80" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H12" s="80" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I12" s="80" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J12" s="80" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K12" s="80" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L12" s="80" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M12" s="81" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N12" s="83"/>
     </row>
@@ -3401,79 +3502,101 @@
         <v>1</v>
       </c>
       <c r="C14" s="89" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D14" s="90"/>
       <c r="E14" s="90"/>
       <c r="F14" s="91"/>
       <c r="G14" s="92">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="H14" s="92"/>
-      <c r="I14" s="92"/>
+      <c r="I14" s="92" t="s">
+        <v>45</v>
+      </c>
       <c r="J14" s="93">
-        <v>42626.652355439815</v>
-      </c>
-      <c r="K14" s="92"/>
-      <c r="L14" s="92"/>
-      <c r="M14" s="94"/>
+        <v>42633.410999884254</v>
+      </c>
+      <c r="K14" s="92" t="s">
+        <v>46</v>
+      </c>
+      <c r="L14" s="92" t="s">
+        <v>47</v>
+      </c>
+      <c r="M14" s="94" t="s">
+        <v>48</v>
+      </c>
       <c r="N14" s="95"/>
     </row>
-    <row r="15">
-      <c r="C15" s="96" t="s">
-        <v>44</v>
-      </c>
-      <c r="D15" s="97" t="s">
-        <v>45</v>
-      </c>
-      <c r="E15" s="96"/>
-      <c r="F15" s="96"/>
-      <c r="G15" s="96"/>
-      <c r="H15" s="96"/>
-      <c r="I15" s="96"/>
-      <c r="J15" s="96"/>
-      <c r="K15" s="96"/>
-      <c r="L15" s="96"/>
-      <c r="M15" s="96"/>
-    </row>
-    <row r="16">
-      <c r="C16" t="s">
-        <v>46</v>
-      </c>
-      <c r="D16" s="98" t="s">
-        <v>47</v>
-      </c>
-      <c r="E16" s="98"/>
-      <c r="F16" s="98"/>
-      <c r="G16" s="98"/>
-      <c r="H16" s="98"/>
-      <c r="I16" s="98"/>
-      <c r="J16" s="98"/>
-      <c r="K16" s="98"/>
-      <c r="L16" s="98"/>
-      <c r="M16" s="98"/>
-      <c r="N16" s="98"/>
+    <row r="15" s="1" customFormat="1" ht="12.75" customHeight="1">
+      <c r="B15" s="88">
+        <v>2</v>
+      </c>
+      <c r="C15" s="89" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="90"/>
+      <c r="E15" s="90"/>
+      <c r="F15" s="91"/>
+      <c r="G15" s="92">
+        <v>0</v>
+      </c>
+      <c r="H15" s="92"/>
+      <c r="I15" s="92"/>
+      <c r="J15" s="93">
+        <v>42633.410999884254</v>
+      </c>
+      <c r="K15" s="92"/>
+      <c r="L15" s="92"/>
+      <c r="M15" s="94"/>
+      <c r="N15" s="95"/>
+    </row>
+    <row r="16" s="1" customFormat="1" ht="12.75" customHeight="1">
+      <c r="B16" s="88">
+        <v>3</v>
+      </c>
+      <c r="C16" s="89" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="90"/>
+      <c r="E16" s="90"/>
+      <c r="F16" s="91"/>
+      <c r="G16" s="92">
+        <v>0</v>
+      </c>
+      <c r="H16" s="92"/>
+      <c r="I16" s="92"/>
+      <c r="J16" s="93">
+        <v>42633.410999884254</v>
+      </c>
+      <c r="K16" s="92"/>
+      <c r="L16" s="92"/>
+      <c r="M16" s="94"/>
+      <c r="N16" s="95"/>
     </row>
     <row r="17">
-      <c r="D17" s="98" t="s">
-        <v>48</v>
-      </c>
-      <c r="E17" s="98"/>
-      <c r="F17" s="98" t="s">
+      <c r="C17" s="96" t="s">
         <v>49</v>
       </c>
-      <c r="G17" s="98"/>
-      <c r="H17" s="98"/>
-      <c r="I17" s="98"/>
-      <c r="J17" s="98"/>
-      <c r="K17" s="98"/>
-      <c r="L17" s="98"/>
-      <c r="M17" s="98"/>
-      <c r="N17" s="98"/>
+      <c r="D17" s="97" t="s">
+        <v>50</v>
+      </c>
+      <c r="E17" s="96"/>
+      <c r="F17" s="96"/>
+      <c r="G17" s="96"/>
+      <c r="H17" s="96"/>
+      <c r="I17" s="96"/>
+      <c r="J17" s="96"/>
+      <c r="K17" s="96"/>
+      <c r="L17" s="96"/>
+      <c r="M17" s="96"/>
     </row>
     <row r="18">
+      <c r="C18" t="s">
+        <v>51</v>
+      </c>
       <c r="D18" s="98" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E18" s="98"/>
       <c r="F18" s="98"/>
@@ -3488,10 +3611,12 @@
     </row>
     <row r="19">
       <c r="D19" s="98" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E19" s="98"/>
-      <c r="F19" s="98"/>
+      <c r="F19" s="98" t="s">
+        <v>54</v>
+      </c>
       <c r="G19" s="98"/>
       <c r="H19" s="98"/>
       <c r="I19" s="98"/>
@@ -3502,11 +3627,8 @@
       <c r="N19" s="98"/>
     </row>
     <row r="20">
-      <c r="C20" t="s">
-        <v>52</v>
-      </c>
       <c r="D20" s="98" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E20" s="98"/>
       <c r="F20" s="98"/>
@@ -3517,10 +3639,11 @@
       <c r="K20" s="98"/>
       <c r="L20" s="98"/>
       <c r="M20" s="98"/>
+      <c r="N20" s="98"/>
     </row>
     <row r="21">
       <c r="D21" s="98" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E21" s="98"/>
       <c r="F21" s="98"/>
@@ -3531,13 +3654,14 @@
       <c r="K21" s="98"/>
       <c r="L21" s="98"/>
       <c r="M21" s="98"/>
+      <c r="N21" s="98"/>
     </row>
     <row r="22">
       <c r="C22" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D22" s="98" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E22" s="98"/>
       <c r="F22" s="98"/>
@@ -3548,14 +3672,10 @@
       <c r="K22" s="98"/>
       <c r="L22" s="98"/>
       <c r="M22" s="98"/>
-      <c r="N22" s="98"/>
     </row>
     <row r="23">
-      <c r="C23" t="s">
-        <v>57</v>
-      </c>
       <c r="D23" s="98" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E23" s="98"/>
       <c r="F23" s="98"/>
@@ -3566,23 +3686,56 @@
       <c r="K23" s="98"/>
       <c r="L23" s="98"/>
       <c r="M23" s="98"/>
-      <c r="N23" s="98"/>
-    </row>
-    <row r="26">
-      <c r="C26" s="98" t="s">
-        <v>59</v>
-      </c>
-      <c r="D26" s="98"/>
-      <c r="E26" s="98"/>
-      <c r="F26" s="98"/>
-      <c r="G26" s="98"/>
-      <c r="H26" s="98"/>
-      <c r="K26" t="s">
+    </row>
+    <row r="24">
+      <c r="C24" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="27" ht="12.75" customHeight="1"/>
-    <row r="28" ht="12.75" customHeight="1"/>
+      <c r="D24" s="98" t="s">
+        <v>61</v>
+      </c>
+      <c r="E24" s="98"/>
+      <c r="F24" s="98"/>
+      <c r="G24" s="98"/>
+      <c r="H24" s="98"/>
+      <c r="I24" s="98"/>
+      <c r="J24" s="98"/>
+      <c r="K24" s="98"/>
+      <c r="L24" s="98"/>
+      <c r="M24" s="98"/>
+      <c r="N24" s="98"/>
+    </row>
+    <row r="25">
+      <c r="C25" t="s">
+        <v>62</v>
+      </c>
+      <c r="D25" s="98" t="s">
+        <v>63</v>
+      </c>
+      <c r="E25" s="98"/>
+      <c r="F25" s="98"/>
+      <c r="G25" s="98"/>
+      <c r="H25" s="98"/>
+      <c r="I25" s="98"/>
+      <c r="J25" s="98"/>
+      <c r="K25" s="98"/>
+      <c r="L25" s="98"/>
+      <c r="M25" s="98"/>
+      <c r="N25" s="98"/>
+    </row>
+    <row r="28">
+      <c r="C28" s="98" t="s">
+        <v>64</v>
+      </c>
+      <c r="D28" s="98"/>
+      <c r="E28" s="98"/>
+      <c r="F28" s="98"/>
+      <c r="G28" s="98"/>
+      <c r="H28" s="98"/>
+      <c r="K28" t="s">
+        <v>65</v>
+      </c>
+    </row>
     <row r="29" ht="12.75" customHeight="1"/>
     <row r="30" ht="12.75" customHeight="1"/>
     <row r="31" ht="12.75" customHeight="1"/>
@@ -3602,19 +3755,21 @@
     <row r="45" ht="12.75" customHeight="1"/>
     <row r="46" ht="12.75" customHeight="1"/>
     <row r="47" ht="12.75" customHeight="1"/>
+    <row r="48" ht="12.75" customHeight="1"/>
+    <row r="49" ht="12.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="28">
-    <mergeCell ref="C26:H26"/>
+  <mergeCells count="32">
+    <mergeCell ref="C28:H28"/>
     <mergeCell ref="G9:H9"/>
     <mergeCell ref="B3:N3"/>
-    <mergeCell ref="D16:N16"/>
-    <mergeCell ref="D20:M20"/>
+    <mergeCell ref="D18:N18"/>
+    <mergeCell ref="D22:M22"/>
     <mergeCell ref="C6:N6"/>
     <mergeCell ref="F7:N7"/>
     <mergeCell ref="I12:I13"/>
     <mergeCell ref="C8:F8"/>
-    <mergeCell ref="D21:M21"/>
-    <mergeCell ref="D22:N22"/>
+    <mergeCell ref="D23:M23"/>
+    <mergeCell ref="D24:N24"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="C12:F13"/>
     <mergeCell ref="G12:G13"/>
@@ -3623,7 +3778,7 @@
     <mergeCell ref="B2:K2"/>
     <mergeCell ref="C4:N4"/>
     <mergeCell ref="C5:N5"/>
-    <mergeCell ref="D23:N23"/>
+    <mergeCell ref="D25:N25"/>
     <mergeCell ref="G8:H8"/>
     <mergeCell ref="I8:N8"/>
     <mergeCell ref="J12:J13"/>
@@ -3632,6 +3787,10 @@
     <mergeCell ref="M12:N13"/>
     <mergeCell ref="M14:N14"/>
     <mergeCell ref="C14:F14"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="C16:F16"/>
   </mergeCells>
   <pageSetup paperSize="9" orientation="portrait" scale="74"/>
 </worksheet>
